--- a/data/trans_bre/P32B-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P32B-Edad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.7102565269267728</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4.480550581271409</v>
+        <v>4.48055058127141</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7988047063420183</v>
@@ -649,7 +649,7 @@
         <v>-0.2883787692640443</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>4.50559924934263</v>
+        <v>4.505599249342633</v>
       </c>
     </row>
     <row r="5">
@@ -660,20 +660,20 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.555407241197294</v>
+        <v>-1.339281015231755</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.878495004194561</v>
+        <v>-5.85369008871532</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.465593115596074</v>
+        <v>-3.52467460902185</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0</v>
+        <v>-0.3859272939367197</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
-        <v>-0.8285953810266938</v>
+        <v>-0.8462417007889568</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>-1</v>
@@ -688,23 +688,23 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.550492005570584</v>
+        <v>3.717069696660616</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8222522324097531</v>
+        <v>0.9725365134350467</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.442034032286017</v>
+        <v>1.939229534509437</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.23973025458386</v>
+        <v>12.32621335054006</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>0.3191479439622926</v>
+        <v>0.4175579004271266</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.949866311211422</v>
+        <v>2.106124194986362</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -729,7 +729,7 @@
         <v>-1.220640505206979</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-3.812712362217793</v>
+        <v>-3.812712362217792</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6778379655964722</v>
@@ -752,27 +752,25 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.7102432088351546</v>
+        <v>-0.5856531586662623</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.706379416482448</v>
+        <v>-4.68313854843726</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.645251061458537</v>
+        <v>-3.718706539095557</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-8.570897696262112</v>
+        <v>-8.31948026408331</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.8427150961420538</v>
-      </c>
-      <c r="J8" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.8111106308095685</v>
+      </c>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -782,27 +780,25 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.401591825742922</v>
+        <v>2.39304851178994</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-0.7304839787458742</v>
+        <v>-0.6957916878159608</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.375893057280659</v>
+        <v>1.662890230541784</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-0.6946230955007939</v>
+        <v>-0.9377278937472131</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>0.1535140615280209</v>
+        <v>0.3240021772367831</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7070280074691164</v>
-      </c>
-      <c r="J9" s="6" t="n">
-        <v>0.2148884611255013</v>
-      </c>
+        <v>0.9435551561257104</v>
+      </c>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -825,7 +821,7 @@
         <v>-1.090829268864194</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.2375404077486286</v>
+        <v>-0.2375404077486294</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.01285873766333712</v>
@@ -837,7 +833,7 @@
         <v>-0.6057787596996117</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1614119156000686</v>
+        <v>-0.1614119156000692</v>
       </c>
     </row>
     <row r="11">
@@ -848,16 +844,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9128142620201136</v>
+        <v>-0.7279598486105172</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.261628067153046</v>
+        <v>-4.361473865775985</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.68601422725252</v>
+        <v>-2.830348039975935</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.184551473872795</v>
+        <v>-2.150382145724463</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
@@ -876,23 +872,23 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.369147466133986</v>
+        <v>1.583586875074604</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.838151785118997</v>
+        <v>-0.8603392168069247</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4478430001143494</v>
+        <v>0.4287478294135593</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.934046004816298</v>
+        <v>1.901966109662752</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>0.2445946582981255</v>
+        <v>0.1552579365072209</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.057274162732071</v>
+        <v>1.383030238488663</v>
       </c>
       <c r="J12" s="6" t="inlineStr"/>
     </row>
@@ -945,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.12662011765254</v>
+        <v>-3.14505410372015</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.786291595559011</v>
+        <v>-3.772822234722494</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.628505920892862</v>
+        <v>-1.619561628270966</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
@@ -959,7 +955,7 @@
         <v>-1</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8197021114531355</v>
+        <v>-0.797734013499027</v>
       </c>
     </row>
     <row r="15">
@@ -970,24 +966,24 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.395087870635192</v>
+        <v>4.234311803922171</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.5414553090876064</v>
+        <v>-0.5392024195877</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3381092252678042</v>
+        <v>0.5714845881125586</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.98425406659993</v>
+        <v>2.090397109739589</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>1.197632475792187</v>
+        <v>2.069526176593417</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3.722729608287195</v>
+        <v>3.472309744034711</v>
       </c>
     </row>
     <row r="16">
@@ -1011,7 +1007,7 @@
         <v>-1.775727267379243</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-0.6577277889775909</v>
+        <v>-0.6577277889775915</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.6080672262757044</v>
@@ -1023,7 +1019,7 @@
         <v>-1</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.2033121688970412</v>
+        <v>-0.2033121688970413</v>
       </c>
     </row>
     <row r="17">
@@ -1034,16 +1030,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.628780161963819</v>
+        <v>-5.694560127493448</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.285171512536299</v>
+        <v>-5.098981160551984</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.674775123722337</v>
+        <v>-4.639557792463471</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.176397617732844</v>
+        <v>-3.331927973735943</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>-1</v>
@@ -1051,7 +1047,7 @@
       <c r="H17" s="6" t="inlineStr"/>
       <c r="I17" s="6" t="inlineStr"/>
       <c r="J17" s="6" t="n">
-        <v>-0.7490870618168436</v>
+        <v>-0.752823352518823</v>
       </c>
     </row>
     <row r="18">
@@ -1062,24 +1058,26 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.02507340343745</v>
+        <v>2.076765293574866</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.3548634513622223</v>
+        <v>-0.3505360526947917</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.7066598096032699</v>
+        <v>-0.3851614868417665</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.240644515998567</v>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>4.097534217629421</v>
+        <v>2.212728474452286</v>
+      </c>
+      <c r="G18" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="inlineStr"/>
       <c r="J18" s="6" t="n">
-        <v>1.28890444433185</v>
+        <v>1.275278959486586</v>
       </c>
     </row>
     <row r="19">
@@ -1125,13 +1123,13 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>-7.674384792973863</v>
+        <v>-7.88857067850625</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.699320653678587</v>
+        <v>-2.703555830578499</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-2.952896731658755</v>
+        <v>-2.792831701435345</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
@@ -1147,13 +1145,13 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>-0.6128320100368864</v>
+        <v>-0.6207619063488176</v>
       </c>
       <c r="E21" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.7266197449229865</v>
+        <v>0.9573386683228848</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
@@ -1181,7 +1179,7 @@
         <v>-0.83736854442623</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.3133551830133965</v>
+        <v>-0.3133551830133967</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-1</v>
@@ -1193,7 +1191,7 @@
         <v>-1</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.1795877471961554</v>
+        <v>-0.1795877471961555</v>
       </c>
     </row>
     <row r="23">
@@ -1204,16 +1202,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.031760169337973</v>
+        <v>-6.88695071848274</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-12.72528292094735</v>
+        <v>-12.78360838285811</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.553900024895651</v>
+        <v>-4.249065144566606</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.776534033632677</v>
+        <v>-2.972373422320346</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="inlineStr"/>
@@ -1237,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.047894689722289</v>
+        <v>4.923852882243543</v>
       </c>
       <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="inlineStr"/>
@@ -1288,28 +1286,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.4408889955133993</v>
+        <v>-0.4251159106598031</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-3.052245436904808</v>
+        <v>-3.02257456110538</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-1.966588723295907</v>
+        <v>-1.986844063752831</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.405871426011365</v>
+        <v>-1.436556675621202</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4764050537741991</v>
+        <v>-0.4238749063691587</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.9057334476729187</v>
+        <v>-0.9014144710386189</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.7707912526340934</v>
+        <v>-0.7629577298509007</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5526288004745511</v>
+        <v>-0.5544285743635862</v>
       </c>
     </row>
     <row r="27">
@@ -1320,28 +1318,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.190403419136332</v>
+        <v>1.193845595542055</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-1.336625842415002</v>
+        <v>-1.163540725570601</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-0.1792513424041016</v>
+        <v>-0.1057204369647571</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1.090359729222816</v>
+        <v>1.058700648481758</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.156955667622913</v>
+        <v>2.22435459876891</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.5085287462481503</v>
+        <v>-0.4635714806896734</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.06839250539444715</v>
+        <v>-0.03340353801609922</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6190238021089078</v>
+        <v>0.697382556618367</v>
       </c>
     </row>
     <row r="28">
